--- a/docs/pass_react_route.xlsx
+++ b/docs/pass_react_route.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamdeng/Project/scg-paas-server-prototype/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\서울도시가스\scg-paas-server-prototype\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B303A6-CB3F-514F-9F2F-4EC1BB45CC34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1580" windowWidth="26300" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="1575" windowWidth="26295" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,8 +631,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,21 +973,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +998,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>171</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1097,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
@@ -1252,7 +1251,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>190</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>66</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>68</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>70</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>72</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>76</v>
       </c>
@@ -1439,7 +1438,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>78</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>80</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
@@ -1494,7 +1493,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>92</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>98</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>100</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>102</v>
       </c>
@@ -1593,7 +1592,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>104</v>
       </c>
@@ -1604,7 +1603,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>106</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>108</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>174</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>175</v>
       </c>
@@ -1648,7 +1647,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>111</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>113</v>
       </c>
@@ -1670,7 +1669,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>115</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>178</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>118</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>120</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>122</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>124</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>126</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>128</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>130</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>131</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>133</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>134</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>135</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>137</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>139</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>141</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>142</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>144</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>146</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>148</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>150</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>152</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>153</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>155</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>157</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>159</v>
       </c>
@@ -1967,7 +1966,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>185</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>160</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>162</v>
       </c>
@@ -2000,7 +1999,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>163</v>
       </c>
@@ -2011,7 +2010,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>165</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>166</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>168</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>169</v>
       </c>
@@ -2055,7 +2054,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>192</v>
       </c>
